--- a/public/preprocessing/@LapaIku.xlsx
+++ b/public/preprocessing/@LapaIku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23599</v>
+        <v>24628</v>
       </c>
       <c r="C2" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>lasombo tpi bkn lewat pdip kan</t>
+          <t>selamat malam pejuang logika yang waras saya yakin rakyat indonesia masih banyak yang waras karena dengan kewaras</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['lasombo', 'tpi', 'bkn', 'lewat', 'pdip', 'kan']</t>
+          <t>['selamat', 'malam', 'pejuang', 'logika', 'yang', 'waras', 'saya', 'yakin', 'rakyat', 'indonesia', 'masih', 'banyak', 'yang', 'waras', 'karena', 'dengan', 'kewaras']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['selamat', 'malam', 'pejuang', 'logika', 'yang', 'waras', 'saya', 'yakin', 'rakyat', 'indonesia', 'masih', 'banyak', 'yang', 'waras', 'karena', 'dengan', 'kewaras']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['lasombo', 'tpi', 'bkn', 'pdip']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['lasombo', 'tpi', 'bkn', 'pdip']</t>
+          <t>['selamat', 'malam', 'pejuang', 'logika', 'waras', 'rakyat', 'indonesia', 'waras', 'kewaras']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['selamat', 'malam', 'juang', 'logika', 'waras', 'rakyat', 'indonesia', 'waras', 'waras']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23600</v>
+        <v>24629</v>
       </c>
       <c r="C3" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cocologi</t>
+          <t>mana ahok ni katanya bersih katanya bisa bikin pertama lebih baik katanya katanya katanya ehhh nyatan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['cocologi']</t>
+          <t>['mana', 'ahok', 'ni', 'katanya', 'bersih', 'katanya', 'bisa', 'bikin', 'pertama', 'lebih', 'baik', 'katanya', 'katanya', 'katanya', 'ehhh', 'nyatan']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['mana', 'ahok', 'nih', 'katanya', 'bersih', 'katanya', 'bisa', 'bikin', 'pertama', 'lebih', 'baik', 'katanya', 'katanya', 'katanya', 'eh', 'nyatan']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['cocologi']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['cocologi']</t>
+          <t>['ahok', 'bersih', 'eh', 'nyatan']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['ahok', 'bersih', 'eh', 'nyatan']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23601</v>
+        <v>24630</v>
       </c>
       <c r="C4" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ha ngumpet gue banyak kerjaan lain bro dripada buang waktu ama robot</t>
+          <t>sehat selalu jendral</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['ha', 'ngumpet', 'gue', 'banyak', 'kerjaan', 'lain', 'bro', 'dripada', 'buang', 'waktu', 'ama', 'robot']</t>
+          <t>['sehat', 'selalu', 'jendral']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['sehat', 'selalu', 'jenderal']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['ha', 'ngumpet', 'gue', 'kerjaan', 'bro', 'dripada', 'buang', 'ama', 'robot']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['ha', 'ngumpet', 'gue', 'kerja', 'bro', 'dripada', 'buang', 'ama', 'robot']</t>
+          <t>['sehat', 'jenderal']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['sehat', 'jenderal']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23602</v>
+        <v>24631</v>
       </c>
       <c r="C5" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>betul saya tidak menyangga itu</t>
+          <t>rt ketangkap basah lo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['betul', 'saya', 'tidak', 'menyangga', 'itu']</t>
+          <t>['rt', 'ketangkap', 'basah', 'lo']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'ketangkap', 'basah', 'kamu']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['menyangga']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['sangga']</t>
+          <t>['ketangkap', 'basah']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['tangkap', 'basah']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23603</v>
+        <v>24632</v>
       </c>
       <c r="C6" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ngomong sama robot ya begini ni wkkwkwk</t>
+          <t>waktu indonesia tengah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['ngomong', 'sama', 'robot', 'ya', 'begini', 'ni', 'wkkwkwk']</t>
+          <t>['waktu', 'indonesia', 'tengah']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['waktu', 'indonesia', 'tengah']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['ngomong', 'robot', 'ni', 'wkkwkwk']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['ngomong', 'robot', 'ni', 'wkkwkwk']</t>
+          <t>['indonesia']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['indonesia']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23604</v>
+        <v>24633</v>
       </c>
       <c r="C7" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>munafik awalnya gak ngaku eehhhhhh tiba jdi ketum abal malaikat pun kalau masuk di pemerintah</t>
+          <t xml:space="preserve">rt fecho narasi penghianat siapa mau percaya itu akan melekat selamanya apalagi berhianat pada orang yang telah membesarkannya </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['munafik', 'awalnya', 'gak', 'ngaku', 'eehhhhhh', 'tiba', 'jdi', 'ketum', 'abal', 'malaikat', 'pun', 'kalau', 'masuk', 'di', 'pemerintah']</t>
+          <t>['rt', 'fecho', 'narasi', 'penghianat', 'siapa', 'mau', 'percaya', 'itu', 'akan', 'melekat', 'selamanya', 'apalagi', 'berhianat', 'pada', 'orang', 'yang', 'telah', 'membesarkannya']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'fecho', 'narasi', 'pengkhianat', 'siapa', 'mau', 'percaya', 'itu', 'akan', 'melekat', 'selamanya', 'apalagi', 'berhianat', 'pada', 'orang', 'yang', 'telah', 'membesarkannya']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['munafik', 'ngaku', 'eehhhhhh', 'jdi', 'ketum', 'abal', 'malaikat', 'masuk', 'pemerintah']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['munafik', 'ngaku', 'eehhhhhh', 'jdi', 'tum', 'abal', 'malaikat', 'masuk', 'perintah']</t>
+          <t>['fecho', 'narasi', 'pengkhianat', 'percaya', 'melekat', 'berhianat', 'orang', 'membesarkannya']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['fecho', 'narasi', 'khianat', 'percaya', 'lekat', 'berhianat', 'orang', 'besar']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23605</v>
+        <v>24634</v>
       </c>
       <c r="C8" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>kan sudah menjalani hukuman buntat makanya otak dipakai bua</t>
+          <t>ferdinan si sempak merah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['kan', 'sudah', 'menjalani', 'hukuman', 'buntat', 'makanya', 'otak', 'dipakai', 'bua']</t>
+          <t>['ferdinan', 'si', 'sempak', 'merah']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ferdinan', 'sih', 'sempak', 'merah']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['menjalani', 'hukuman', 'buntat', 'otak', 'dipakai', 'bua']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['jalan', 'hukum', 'buntat', 'otak', 'pakai', 'bua']</t>
+          <t>['ferdinan', 'sempak', 'merah']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['ferdinan', 'sempak', 'merah']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23606</v>
+        <v>24635</v>
       </c>
       <c r="C9" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>sangat setujusetuju pakai bangettttttt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['sangat', 'setujusetuju', 'pakai', 'bangettttttt']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['sangat', 'setujusetuju', 'pakai', 'banget']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['setujusetuju', 'pakai', 'banget']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['setujusetuju', 'pakai', 'banget']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23607</v>
+        <v>24636</v>
       </c>
       <c r="C10" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>bukan di internal pd dulu saya respek dengan bapak krna argumen dan pendapat yg bapak sampaikan be</t>
+          <t>rt zhack hahaha hahahaha pantesan laganya sok galak nggak tahunya di dugakulupciiiiiiipraaasprasssloe pdip yaak wqwqw</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['bukan', 'di', 'internal', 'pd', 'dulu', 'saya', 'respek', 'dengan', 'bapak', 'krna', 'argumen', 'dan', 'pendapat', 'yg', 'bapak', 'sampaikan', 'be']</t>
+          <t>['rt', 'zhack', 'hahaha', 'hahahaha', 'pantesan', 'laganya', 'sok', 'galak', 'nggak', 'tahunya', 'di', 'dugakulupciiiiiiipraaasprasssloe', 'pdip', 'yaak', 'wqwqw']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'zhack', 'haha', 'haha', 'pantas, saja', 'laganya', 'sok', 'galak', 'enggak', 'tahunnya', 'di', 'dugakulupciiiiiiipraaasprasssloe', 'partai, demokrasi, indonesia, perjuangan', 'ya', 'wqwqw']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['internal', 'pd', 'respek', 'krna', 'argumen', 'pendapat', 'be']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['internal', 'pd', 'respek', 'krna', 'argumen', 'dapat', 'be']</t>
+          <t>['zhack', 'haha', 'haha', 'pantas, saja', 'laganya', 'sok', 'galak', 'tahunnya', 'dugakulupciiiiiiipraaasprasssloe', 'partai, demokrasi, indonesia, perjuangan', 'wqwqw']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['zhack', 'haha', 'haha', 'pantas saja', 'laga', 'sok', 'galak', 'tahun', 'dugakulupciiiiiiipraaasprasssloe', 'partai demokrasi indonesia juang', 'wqwqw']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23608</v>
+        <v>24637</v>
       </c>
       <c r="C11" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jangan kira rakyat bodoh pak seolaholah bapak aja yang paling pintar di negeri ini ada perbedaan be</t>
+          <t>caption</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['jangan', 'kira', 'rakyat', 'bodoh', 'pak', 'seolaholah', 'bapak', 'aja', 'yang', 'paling', 'pintar', 'di', 'negeri', 'ini', 'ada', 'perbedaan', 'be']</t>
+          <t>['caption']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['caption']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['rakyat', 'bodoh', 'seolaholah', 'pintar', 'negeri', 'perbedaan', 'be']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['rakyat', 'bodoh', 'seolaholah', 'pintar', 'negeri', 'beda', 'be']</t>
+          <t>['caption']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['caption']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23609</v>
+        <v>24638</v>
       </c>
       <c r="C12" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ada bukti jgn nyebar fitnah lo bot</t>
+          <t>rt cuma mengingatkan terserah mau di ikuti apa tidak</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['ada', 'bukti', 'jgn', 'nyebar', 'fitnah', 'lo', 'bot']</t>
+          <t>['rt', 'cuma', 'mengingatkan', 'terserah', 'mau', 'di', 'ikuti', 'apa', 'tidak']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'cuma', 'mengingatkan', 'terserah', 'mau', 'di', 'ikuti', 'apa', 'tidak']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['bukti', 'nyebar', 'fitnah', 'lo', 'bot']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['bukti', 'nyebar', 'fitnah', 'lo', 'bot']</t>
+          <t>['terserah', 'ikuti']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['serah', 'ikut']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23610</v>
+        <v>24639</v>
       </c>
       <c r="C13" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>asli robot loe ngomong asal ngorocos aja pakai data dan otak kalau ngomong</t>
+          <t>rt fecho ksp moeldoko dengan kebesaran hati sebaiknya meminta maaf pada partai demokrat sby dan ahy sebagai ketua umum yang sah ke</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['asli', 'robot', 'loe', 'ngomong', 'asal', 'ngorocos', 'aja', 'pakai', 'data', 'dan', 'otak', 'kalau', 'ngomong']</t>
+          <t>['rt', 'fecho', 'ksp', 'moeldoko', 'dengan', 'kebesaran', 'hati', 'sebaiknya', 'meminta', 'maaf', 'pada', 'partai', 'demokrat', 'sby', 'dan', 'ahy', 'sebagai', 'ketua', 'umum', 'yang', 'sah', 'ke']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'fecho', 'ksp', 'moeldoko', 'dengan', 'kebesaran', 'hati', 'sebaiknya', 'meminta', 'maaf', 'pada', 'partai', 'demokrat', 'susilo, bambang, yudhoyono', 'dan', 'agus, harimurti, yudhoyono', 'sebagai', 'ketua', 'umum', 'yang', 'sah', 'ke']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['asli', 'robot', 'loe', 'ngomong', 'ngorocos', 'pakai', 'data', 'otak', 'ngomong']</t>
+          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['asli', 'robot', 'loe', 'ngomong', 'ngorocos', 'pakai', 'data', 'otak', 'ngomong']</t>
+          <t>['fecho', 'ksp', 'moeldoko', 'kebesaran', 'hati', 'maaf', 'partai', 'demokrat', 'susilo, bambang, yudhoyono', 'agus, harimurti, yudhoyono', 'ketua', 'sah']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['fecho', 'ksp', 'moeldoko', 'besar', 'hati', 'maaf', 'partai', 'demokrat', 'susilo bambang yudhoyono', 'agus harimurti yudhoyono', 'ketua', 'sah']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23611</v>
+        <v>24640</v>
       </c>
       <c r="C14" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>dasar robot</t>
+          <t>satu jendral waras satu jendral kardus</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['dasar', 'robot']</t>
+          <t>['satu', 'jendral', 'waras', 'satu', 'jendral', 'kardus']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['satu', 'jenderal', 'waras', 'satu', 'jenderal', 'kardus']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['dasar', 'robot']</t>
+          <t>&lt;FreqDist with 4 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['dasar', 'robot']</t>
+          <t>['jenderal', 'waras', 'jenderal', 'kardus']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['jenderal', 'waras', 'jenderal', 'kardus']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23612</v>
+        <v>24641</v>
       </c>
       <c r="C15" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>saya setuju klb aja pdip</t>
+          <t>hajar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['saya', 'setuju', 'klb', 'aja', 'pdip']</t>
+          <t>['hajar']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['hajar']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['setuju', 'klb', 'pdip']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['tuju', 'klb', 'pdip']</t>
+          <t>['hajar']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['hajar']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23613</v>
+        <v>24642</v>
       </c>
       <c r="C16" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>biasanya kalau org yang sudah memberi tpi merasa bersalah dan menyesal atas perbuatan tersebut berati ada kesalahan</t>
+          <t>rakyat menunggu sikap dari yasona</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['biasanya', 'kalau', 'org', 'yang', 'sudah', 'memberi', 'tpi', 'merasa', 'bersalah', 'dan', 'menyesal', 'atas', 'perbuatan', 'tersebut', 'berati', 'ada', 'kesalahan']</t>
+          <t>['rakyat', 'menunggu', 'sikap', 'dari', 'yasona']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rakyat', 'menunggu', 'sikap', 'dari', 'yasona']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['org', 'tpi', 'bersalah', 'menyesal', 'perbuatan', 'berati', 'kesalahan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['org', 'tpi', 'salah', 'sesal', 'buat', 'berat', 'salah']</t>
+          <t>['rakyat', 'menunggu', 'sikap', 'yasona']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['rakyat', 'tunggu', 'sikap', 'yasona']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23614</v>
+        <v>24643</v>
       </c>
       <c r="C17" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>asli gak nyambung loe zaman ibu mega tidak merampok pdip tapi mendirikan</t>
+          <t>rt gerindra akhirnya bersuara lantang moeldoko rendahan tidak punya malu bikin malu bapak</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['asli', 'gak', 'nyambung', 'loe', 'zaman', 'ibu', 'mega', 'tidak', 'merampok', 'pdip', 'tapi', 'mendirikan']</t>
+          <t>['rt', 'gerindra', 'akhirnya', 'bersuara', 'lantang', 'moeldoko', 'rendahan', 'tidak', 'punya', 'malu', 'bikin', 'malu', 'bapak']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'gerindra', 'akhirnya', 'bersuara', 'lantang', 'moeldoko', 'rendahan', 'tidak', 'punya', 'malu', 'bikin', 'malu', 'bapak']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['asli', 'nyambung', 'loe', 'zaman', 'mega', 'merampok', 'pdip', 'mendirikan']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['asli', 'nyambung', 'loe', 'zaman', 'mega', 'rampok', 'pdip', 'diri']</t>
+          <t>['gerindra', 'bersuara', 'lantang', 'moeldoko', 'rendahan', 'malu', 'malu']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['gerindra', 'suara', 'lantang', 'moeldoko', 'rendah', 'malu', 'malu']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23615</v>
+        <v>24644</v>
       </c>
       <c r="C18" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>itu namanya bijiiii kontoll</t>
+          <t>rt ada apa motif dibalik pembersihan bercak darah mengambil cctv di salah satu warung amp perintah penghapusan amp pemeriksaan hp</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['itu', 'namanya', 'bijiiii', 'kontoll']</t>
+          <t>['rt', 'ada', 'apa', 'motif', 'dibalik', 'pembersihan', 'bercak', 'darah', 'mengambil', 'cctv', 'di', 'salah', 'satu', 'warung', 'amp', 'perintah', 'penghapusan', 'amp', 'pemeriksaan', 'hp']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'ada', 'apa', 'motif', 'dibalik', 'pembersihan', 'bercak', 'darah', 'mengambil', 'cctv', 'di', 'salah', 'satu', 'warung', 'amp', 'perintah', 'penghapusan', 'amp', 'pemeriksaan', 'handphone']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['namanya', 'bijiiii', 'kontoll']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['nama', 'bijiiii', 'kontoll']</t>
+          <t>['motif', 'dibalik', 'pembersihan', 'bercak', 'darah', 'mengambil', 'cctv', 'salah', 'warung', 'perintah', 'penghapusan', 'pemeriksaan', 'handphone']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['motif', 'balik', 'bersih', 'bercak', 'darah', 'ambil', 'cctv', 'salah', 'warung', 'perintah', 'hapus', 'periksa', 'handphone']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23616</v>
+        <v>24645</v>
       </c>
       <c r="C19" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>eh si gerombolan tutup botol muncul</t>
+          <t>malaikatpun akan jadi iblis apabila masuk di pemerintahan sekarang tweet legend</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['eh', 'si', 'gerombolan', 'tutup', 'botol', 'muncul']</t>
+          <t>['malaikatpun', 'akan', 'jadi', 'iblis', 'apabila', 'masuk', 'di', 'pemerintahan', 'sekarang', 'tweet', 'legend']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['malaikatpun', 'akan', 'jadi', 'iblis', 'apabila', 'masuk', 'di', 'pemerintahan', 'sekarang', 'twit', 'legend']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['eh', 'gerombolan', 'tutup', 'botol', 'muncul']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['eh', 'gerombol', 'tutup', 'botol', 'muncul']</t>
+          <t>['malaikatpun', 'iblis', 'masuk', 'pemerintahan', 'twit', 'legend']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['malaikat', 'iblis', 'masuk', 'perintah', 'twit', 'legend']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23617</v>
+        <v>24646</v>
       </c>
       <c r="C20" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>si moelbontot gak tau aturan</t>
+          <t>rt cc lihat nih pak masa brutal gtu dibilang bkn pelanggaran ham berat ingat pak jabatan sementara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['si', 'moelbontot', 'gak', 'tau', 'aturan']</t>
+          <t>['rt', 'cc', 'lihat', 'nih', 'pak', 'masa', 'brutal', 'gtu', 'dibilang', 'bkn', 'pelanggaran', 'ham', 'berat', 'ingat', 'pak', 'jabatan', 'sementara']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'cc', 'lihat', 'nih', 'pak', 'masa', 'brutal', 'begitu', 'dibilang', 'bukan', 'pelanggaran', 'ham', 'berat', 'ingat', 'pak', 'jabatan', 'sementara']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['moelbontot', 'aturan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['moelbontot', 'atur']</t>
+          <t>['cc', 'lihat', 'brutal', 'dibilang', 'pelanggaran', 'ham', 'berat', 'jabatan']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['cc', 'lihat', 'brutal', 'bilang', 'langgar', 'ham', 'berat', 'jabat']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23618</v>
+        <v>24647</v>
       </c>
       <c r="C21" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt saksikan konferensi pers ketua umum partai demokrat</t>
+          <t>rt kritik nadiem ppp soroti hilangnya frasa agama dalam pjpn</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'saksikan', 'konferensi', 'pers', 'ketua', 'umum', 'partai', 'demokrat']</t>
+          <t>['rt', 'kritik', 'nadiem', 'ppp', 'soroti', 'hilangnya', 'frasa', 'agama', 'dalam', 'pjpn']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'kritik', 'nadiem', 'ppp', 'soroti', 'hilangnya', 'frasa', 'agama', 'dalam', 'pjpn']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['saksikan', 'konferensi', 'pers', 'ketua', 'partai', 'demokrat']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['saksi', 'konferensi', 'pers', 'ketua', 'partai', 'demokrat']</t>
+          <t>['kritik', 'nadiem', 'ppp', 'soroti', 'hilangnya', 'frasa', 'agama', 'pjpn']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kritik', 'nadiem', 'ppp', 'sorot', 'hilang', 'frasa', 'agama', 'pjpn']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23619</v>
+        <v>24648</v>
       </c>
       <c r="C22" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>gak tau malu</t>
+          <t>rt para pengurus demokrat tingkat kabupaten dan kota kini resah mereka diancam intel polres untuk menyerahkan nama pengu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['gak', 'tau', 'malu']</t>
+          <t>['rt', 'para', 'pengurus', 'demokrat', 'tingkat', 'kabupaten', 'dan', 'kota', 'kini', 'resah', 'mereka', 'diancam', 'intel', 'polres', 'untuk', 'menyerahkan', 'nama', 'pengu']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'para', 'pengurus', 'demokrat', 'tingkat', 'kabupaten', 'dan', 'kota', 'kini', 'resah', 'mereka', 'diancam', 'intel', 'polisi, resor', 'untuk', 'menyerahkan', 'nama', 'pengu']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['malu']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['malu']</t>
+          <t>['pengurus', 'demokrat', 'tingkat', 'kabupaten', 'kota', 'resah', 'diancam', 'intel', 'polisi, resor', 'menyerahkan', 'nama', 'pengu']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['urus', 'demokrat', 'tingkat', 'kabupaten', 'kota', 'resah', 'ancam', 'intel', 'polisi resor', 'serah', 'nama', 'pengu']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23620</v>
+        <v>24649</v>
       </c>
       <c r="C23" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>woeooeoee dasar tidak punya malu loe moelbonto</t>
+          <t>namanya juga anjng bu mana bisa dipercaya kebetulan dia anjng liar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['woeooeoee', 'dasar', 'tidak', 'punya', 'malu', 'loe', 'moelbonto']</t>
+          <t>['namanya', 'juga', 'anjng', 'bu', 'mana', 'bisa', 'dipercaya', 'kebetulan', 'dia', 'anjng', 'liar']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['namanya', 'juga', 'anjng', 'bu', 'mana', 'bisa', 'dipercaya', 'kebetulan', 'dia', 'anjng', 'liar']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['woeooeoee', 'dasar', 'malu', 'loe', 'moelbonto']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['woeooeoee', 'dasar', 'malu', 'loe', 'moelbonto']</t>
+          <t>['namanya', 'anjng', 'bu', 'dipercaya', 'anjng', 'liar']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['nama', 'anjng', 'bu', 'percaya', 'anjng', 'liar']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23621</v>
+        <v>24650</v>
       </c>
       <c r="C24" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>wong mereka yg mendukung ko</t>
+          <t>rt didu negeri amplop negara cukong</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['wong', 'mereka', 'yg', 'mendukung', 'ko']</t>
+          <t>['rt', 'didu', 'negeri', 'amplop', 'negara', 'cukong']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'didu', 'negeri', 'amplop', 'negara', 'cukong']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['mendukung', 'ko']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['dukung', 'ko']</t>
+          <t>['didu', 'negeri', 'amplop', 'negara', 'cukong']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['didu', 'negeri', 'amplop', 'negara', 'cukong']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23622</v>
+        <v>24651</v>
       </c>
       <c r="C25" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>sdh jatuh korban</t>
+          <t>setidaknya jgn merusak ahlak dan moral orang banyak pak kalau anak dia sendiri ya terserah dia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['sdh', 'jatuh', 'korban']</t>
+          <t>['setidaknya', 'jgn', 'merusak', 'ahlak', 'dan', 'moral', 'orang', 'banyak', 'pak', 'kalau', 'anak', 'dia', 'sendiri', 'ya', 'terserah', 'dia']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['setidaknya', 'jangan', 'merusak', 'ahlak', 'dan', 'moral', 'orang', 'banyak', 'pak', 'kalau', 'anak', 'dia', 'sendiri', 'ya', 'terserah', 'dia']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['jatuh', 'korban']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['jatuh', 'korban']</t>
+          <t>['merusak', 'ahlak', 'moral', 'orang', 'anak', 'terserah']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['rusak', 'ahlak', 'moral', 'orang', 'anak', 'serah']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23623</v>
+        <v>24652</v>
       </c>
       <c r="C26" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>korban dari kubu mana ni</t>
+          <t>jasanya menteri pendidikannya ini apa sih selain buat rusak ahlak ingat pak menteri yg lebih pen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['korban', 'dari', 'kubu', 'mana', 'ni']</t>
+          <t>['jasanya', 'menteri', 'pendidikannya', 'ini', 'apa', 'sih', 'selain', 'buat', 'rusak', 'ahlak', 'ingat', 'pak', 'menteri', 'yg', 'lebih', 'pen']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['jasanya', 'menteri', 'pendidikannya', 'ini', 'apa', 'sih', 'selain', 'buat', 'rusak', 'ahlak', 'ingat', 'pak', 'menteri', 'yang', 'lebih', 'ingin']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['korban', 'kubu', 'ni']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['korban', 'kubu', 'ni']</t>
+          <t>['jasanya', 'menteri', 'pendidikannya', 'rusak', 'ahlak', 'menteri']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['jasa', 'menteri', 'didik', 'rusak', 'ahlak', 'menteri']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23624</v>
+        <v>24653</v>
       </c>
       <c r="C27" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>manttaap</t>
+          <t>rt semoga kasus ini juga segera diselesaikan oleh mabes polri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['manttaap']</t>
+          <t>['rt', 'semoga', 'kasus', 'ini', 'juga', 'segera', 'diselesaikan', 'oleh', 'mabes', 'polri']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'kasus', 'ini', 'juga', 'segera', 'diselesaikan', 'oleh', 'markas, besar', 'kepolisian, republik, indonesia']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['manttaap']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['manttaap']</t>
+          <t>['semoga', 'diselesaikan', 'markas, besar', 'kepolisian, republik, indonesia']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['moga', 'selesai', 'markas besar', 'polisi republik indonesia']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23625</v>
+        <v>24654</v>
       </c>
       <c r="C28" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt fecho</t>
+          <t>ini orang yg mungkin salah satu jadi penyebab terjadinya degradasi moral</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'fecho']</t>
+          <t>['ini', 'orang', 'yg', 'mungkin', 'salah', 'satu', 'jadi', 'penyebab', 'terjadinya', 'degradasi', 'moral']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ini', 'orang', 'yang', 'mungkin', 'salah', 'satu', 'jadi', 'penyebab', 'terjadinya', 'degradasi', 'moral']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['fecho']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['fecho']</t>
+          <t>['orang', 'salah', 'penyebab', 'degradasi', 'moral']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['orang', 'salah', 'sebab', 'degradasi', 'moral']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23626</v>
+        <v>24655</v>
       </c>
       <c r="C29" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>luar biasa kader muda partai berlambang merci selalu santu dan tak patah semangat</t>
+          <t>hancur loe mulkodok</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['luar', 'biasa', 'kader', 'muda', 'partai', 'berlambang', 'merci', 'selalu', 'santu', 'dan', 'tak', 'patah', 'semangat']</t>
+          <t>['hancur', 'loe', 'mulkodok']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['hancur', 'kamu', 'mulkodok']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['kader', 'muda', 'partai', 'berlambang', 'merci', 'santu', 'patah', 'semangat']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['kader', 'muda', 'partai', 'lambang', 'merci', 'santu', 'patah', 'semangat']</t>
+          <t>['hancur', 'mulkodok']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['hancur', 'mulkodok']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23627</v>
+        <v>24656</v>
       </c>
       <c r="C30" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jj dia ahahha ketahuan</t>
+          <t>hahhahahaha</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['jj', 'dia', 'ahahha', 'ketahuan']</t>
+          <t>['hahhahahaha']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['haha']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['jj', 'ahahha', 'ketahuan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['jj', 'ahahha', 'tahu']</t>
+          <t>['haha']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['haha']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23628</v>
+        <v>24657</v>
       </c>
       <c r="C31" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>mantap respon yang bijak</t>
+          <t>semangat pa wawali semoga jadi kota harapan dan impian serta pusat peradaban sesuai dengan visi misi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['mantap', 'respon', 'yang', 'bijak']</t>
+          <t>['semangat', 'pa', 'wawali', 'semoga', 'jadi', 'kota', 'harapan', 'dan', 'impian', 'serta', 'pusat', 'peradaban', 'sesuai', 'dengan', 'visi', 'misi']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['semangat', 'pak', 'wawali', 'semoga', 'jadi', 'kota', 'harapan', 'dan', 'impian', 'serta', 'pusat', 'peradaban', 'sesuai', 'dengan', 'visi', 'misi']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['mantap', 'respon', 'bijak']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['mantap', 'respon', 'bijak']</t>
+          <t>['semangat', 'wawali', 'semoga', 'kota', 'harapan', 'impian', 'pusat', 'peradaban', 'sesuai', 'visi', 'misi']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['semangat', 'wawali', 'moga', 'kota', 'harap', 'impi', 'pusat', 'adab', 'sesuai', 'visi', 'misi']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23629</v>
+        <v>24658</v>
       </c>
       <c r="C32" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>hmmmm asli parah kronis kelakuan di mulbontot</t>
+          <t>wkkwwkkkwwk</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['hmmmm', 'asli', 'parah', 'kronis', 'kelakuan', 'di', 'mulbontot']</t>
+          <t>['wkkwwkkkwwk']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['wkkwwkkkwwk']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['hmmmm', 'asli', 'parah', 'kronis', 'kelakuan', 'mulbontot']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['hmmmm', 'asli', 'parah', 'kronis', 'laku', 'mulbontot']</t>
+          <t>['wkkwwkkkwwk']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['wkkwwkkkwwk']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23630</v>
+        <v>24659</v>
       </c>
       <c r="C33" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">kelakuan gerombolan kaka pembina telah dan sangat menciderai demokrasi yang telah dibangun pasca reformasi kaka </t>
+          <t>rt dua kader pdip herman herry dan ichsan yunus dpt satu juta paket ri tangakp mereka tunggu apalagikok mereka aman</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['kelakuan', 'gerombolan', 'kaka', 'pembina', 'telah', 'dan', 'sangat', 'menciderai', 'demokrasi', 'yang', 'telah', 'dibangun', 'pasca', 'reformasi', 'kaka']</t>
+          <t>['rt', 'dua', 'kader', 'pdip', 'herman', 'herry', 'dan', 'ichsan', 'yunus', 'dpt', 'satu', 'juta', 'paket', 'ri', 'tangakp', 'mereka', 'tunggu', 'apalagikok', 'mereka', 'aman']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'dua', 'kader', 'partai, demokrasi, indonesia, perjuangan', 'herman', 'herry', 'dan', 'ichsan', 'yunus', 'dapat', 'satu', 'juta', 'paket', 'ri', 'tangakp', 'mereka', 'tunggu', 'apalagikok', 'mereka', 'aman']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['kelakuan', 'gerombolan', 'kaka', 'pembina', 'menciderai', 'demokrasi', 'dibangun', 'pasca', 'reformasi', 'kaka']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['laku', 'gerombol', 'kaka', 'bina', 'menciderai', 'demokrasi', 'bangun', 'pasca', 'reformasi', 'kaka']</t>
+          <t>['kader', 'partai, demokrasi, indonesia, perjuangan', 'herman', 'herry', 'ichsan', 'yunus', 'juta', 'paket', 'ri', 'tangakp', 'tunggu', 'apalagikok', 'aman']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['kader', 'partai demokrasi indonesia juang', 'herman', 'herry', 'ichsan', 'yunus', 'juta', 'paket', 'ri', 'tangakp', 'tunggu', 'apalagikok', 'aman']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23631</v>
+        <v>24660</v>
       </c>
       <c r="C34" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>wowww</t>
+          <t>dimuka</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['wowww']</t>
+          <t>['dimuka']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['di, muka']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['wowww']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['wowww']</t>
+          <t>['di, muka']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['di muka']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23632</v>
+        <v>24661</v>
       </c>
       <c r="C35" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>id fb bang</t>
+          <t>sangat setuju buka biar terang benderang</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['id', 'fb', 'bang']</t>
+          <t>['sangat', 'setuju', 'buka', 'biar', 'terang', 'benderang']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sangat', 'setuju', 'buka', 'biar', 'terang', 'benderang']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['id', 'fb', 'bang']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['id', 'fb', 'bang']</t>
+          <t>['setuju', 'buka', 'terang', 'benderang']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['tuju', 'buka', 'terang', 'benderang']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23633</v>
+        <v>24662</v>
       </c>
       <c r="C36" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>pastinya murid dari kaka pembina yg berbuat</t>
+          <t>lawan</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['pastinya', 'murid', 'dari', 'kaka', 'pembina', 'yg', 'berbuat']</t>
+          <t>['lawan']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['lawan']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['pastinya', 'murid', 'kaka', 'pembina', 'berbuat']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['pasti', 'murid', 'kaka', 'bina', 'buat']</t>
+          <t>['lawan']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['lawan']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23634</v>
+        <v>24663</v>
       </c>
       <c r="C37" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>gamki sama</t>
+          <t>rt patut dicontohi prajurit sejati</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['gamki', 'sama']</t>
+          <t>['rt', 'patut', 'dicontohi', 'prajurit', 'sejati']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'patut', 'dicontohi', 'prajurit', 'sejati']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['gamki']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['gamki']</t>
+          <t>['patut', 'dicontohi', 'prajurit', 'sejati']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['patut', 'contoh', 'prajurit', 'sejati']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23635</v>
+        <v>24664</v>
       </c>
       <c r="C38" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>di hack oleh gerombolan tutup panci</t>
+          <t>semua harus jadi penjilat negeri diambang kehancuran moral</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['di', 'hack', 'oleh', 'gerombolan', 'tutup', 'panci']</t>
+          <t>['semua', 'harus', 'jadi', 'penjilat', 'negeri', 'diambang', 'kehancuran', 'moral']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['semua', 'harus', 'jadi', 'penjilat', 'negeri', 'diambang', 'kehancuran', 'moral']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['hack', 'gerombolan', 'tutup', 'panci']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['hack', 'gerombol', 'tutup', 'panci']</t>
+          <t>['penjilat', 'negeri', 'diambang', 'kehancuran', 'moral']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['jilat', 'negeri', 'ambang', 'hancur', 'moral']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,35 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23636</v>
+        <v>24665</v>
       </c>
       <c r="C39" t="n">
-        <v>284</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>parah mereka dpp gamki aja gak ngakuin terus itu gerombolan mana mantap gamki yg bertindak cepat</t>
-        </is>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['parah', 'mereka', 'dpp', 'gamki', 'aja', 'gak', 'ngakuin', 'terus', 'itu', 'gerombolan', 'mana', 'mantap', 'gamki', 'yg', 'bertindak', 'cepat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['parah', 'dpp', 'gamki', 'ngakuin', 'gerombolan', 'mantap', 'gamki', 'bertindak', 'cepat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['parah', 'dpp', 'gamki', 'ngakuin', 'gerombol', 'mantap', 'gamki', 'tindak', 'cepat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23637</v>
+        <v>24666</v>
       </c>
       <c r="C40" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jauhnya</t>
+          <t>semoga sehat selalu semoga kesesatan berpikir ini cepat berlalu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['jauhnya']</t>
+          <t>['semoga', 'sehat', 'selalu', 'semoga', 'kesesatan', 'berpikir', 'ini', 'cepat', 'berlalu']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['semoga', 'sehat', 'selalu', 'semoga', 'kesesatan', 'berpikir', 'ini', 'cepat', 'berlalu']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['jauhnya']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['jauh']</t>
+          <t>['semoga', 'sehat', 'semoga', 'kesesatan', 'berpikir', 'cepat']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['moga', 'sehat', 'moga', 'sesat', 'pikir', 'cepat']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23638</v>
+        <v>24667</v>
       </c>
       <c r="C41" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>semua didikan kaka pembina turun tangan rupanya wkkwkwkwkw</t>
+          <t>haahhaha</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['semua', 'didikan', 'kaka', 'pembina', 'turun', 'tangan', 'rupanya', 'wkkwkwkwkw']</t>
+          <t>['haahhaha']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['haahhaha']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['didikan', 'kaka', 'pembina', 'turun', 'tangan', 'wkkwkwkwkw']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['dik', 'kaka', 'bina', 'turun', 'tangan', 'wkkwkwkwkw']</t>
+          <t>['haahhaha']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['haahhaha']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23639</v>
+        <v>24668</v>
       </c>
       <c r="C42" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>awalnya ngelak eh ternyata busuk loe mol</t>
+          <t>lasombo tpi bkn lewat pdip kan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['awalnya', 'ngelak', 'eh', 'ternyata', 'busuk', 'loe', 'mol']</t>
+          <t>['lasombo', 'tpi', 'bkn', 'lewat', 'pdip', 'kan']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['lasombo', 'tetapi', 'bukan', 'lewat', 'partai, demokrasi, indonesia, perjuangan', 'kan']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['ngelak', 'eh', 'busuk', 'loe', 'mol']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['ngelak', 'eh', 'busuk', 'loe', 'mol']</t>
+          <t>['lasombo', 'partai, demokrasi, indonesia, perjuangan']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['lasombo', 'partai demokrasi indonesia juang']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23640</v>
+        <v>24669</v>
       </c>
       <c r="C43" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>aamiin</t>
+          <t>cocologi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['cocologi']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['cocologi']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['aamiin']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['cocologi']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['cocologi']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23641</v>
+        <v>24670</v>
       </c>
       <c r="C44" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt nhs</t>
+          <t>ha ngumpet gue banyak kerjaan lain bro dripada buang waktu ama robot</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'nhs']</t>
+          <t>['ha', 'ngumpet', 'gue', 'banyak', 'kerjaan', 'lain', 'bro', 'dripada', 'buang', 'waktu', 'ama', 'robot']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['apa', 'mengumpet', 'gue', 'banyak', 'pekerjaan', 'lain', 'bro', 'daripada', 'buang', 'waktu', 'sama', 'robot']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['nhs']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['nhs']</t>
+          <t>['mengumpet', 'gue', 'pekerjaan', 'bro', 'buang', 'robot']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['umpet', 'gue', 'kerja', 'bro', 'buang', 'robot']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23642</v>
+        <v>24671</v>
       </c>
       <c r="C45" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>inikah</t>
+          <t>betul saya tidak menyangga itu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['inikah']</t>
+          <t>['betul', 'saya', 'tidak', 'menyangga', 'itu']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['betul', 'saya', 'tidak', 'menyangga', 'itu']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['menyangga']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['sangga']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23643</v>
+        <v>24672</v>
       </c>
       <c r="C46" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt zina didukung dengan alasan consent riba didukung dengan alasan terpaksa miras didukung dengan alasan kearifan lokal gilira</t>
+          <t>ngomong sama robot ya begini ni wkkwkwk</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'zina', 'didukung', 'dengan', 'alasan', 'consent', 'riba', 'didukung', 'dengan', 'alasan', 'terpaksa', 'miras', 'didukung', 'dengan', 'alasan', 'kearifan', 'lokal', 'gilira']</t>
+          <t>['ngomong', 'sama', 'robot', 'ya', 'begini', 'ni', 'wkkwkwk']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 18 outcomes&gt;</t>
+          <t>['berbicara', 'sama', 'robot', 'ya', 'begini', 'nih', 'wkkwkwk']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['zina', 'didukung', 'alasan', 'consent', 'riba', 'didukung', 'alasan', 'terpaksa', 'miras', 'didukung', 'alasan', 'kearifan', 'lokal', 'gilira']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['zina', 'dukung', 'alas', 'consent', 'riba', 'dukung', 'alas', 'paksa', 'miras', 'dukung', 'alas', 'arif', 'lokal', 'gilira']</t>
+          <t>['berbicara', 'robot', 'wkkwkwk']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['bicara', 'robot', 'wkkwkwk']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23644</v>
+        <v>24673</v>
       </c>
       <c r="C47" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt hai orangorang yang beriman sesungguhnya meminum khamar berjudi berkorban untuk berhala mengundi nasib dengan pana</t>
+          <t>munafik awalnya gak ngaku eehhhhhh tiba jdi ketum abal malaikat pun kalau masuk di pemerintah</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'hai', 'orangorang', 'yang', 'beriman', 'sesungguhnya', 'meminum', 'khamar', 'berjudi', 'berkorban', 'untuk', 'berhala', 'mengundi', 'nasib', 'dengan', 'pana']</t>
+          <t>['munafik', 'awalnya', 'gak', 'ngaku', 'eehhhhhh', 'tiba', 'jdi', 'ketum', 'abal', 'malaikat', 'pun', 'kalau', 'masuk', 'di', 'pemerintah']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['munafik', 'awalnya', 'tidak', 'mengakui', 'eehhhhhh', 'tiba', 'jadi', 'ketua, umum', 'abal', 'malaikat', 'pun', 'kalau', 'masuk', 'di', 'pemerintah']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['hai', 'orangorang', 'beriman', 'sesungguhnya', 'meminum', 'khamar', 'berjudi', 'berkorban', 'berhala', 'mengundi', 'nasib', 'pana']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['hai', 'orangorang', 'iman', 'sungguh', 'minum', 'khamar', 'judi', 'korban', 'berhala', 'undi', 'nasib', 'pana']</t>
+          <t>['munafik', 'mengakui', 'eehhhhhh', 'ketua, umum', 'abal', 'malaikat', 'masuk', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['munafik', 'aku', 'eehhhhhh', 'ketua umum', 'abal', 'malaikat', 'masuk', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23645</v>
+        <v>24674</v>
       </c>
       <c r="C48" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt pemimpin yg benarbenar taat pada ajaran agamanya sangat tidak mungkin dia berpikir untuk ijinkan investasi miras di negar</t>
+          <t>kan sudah menjalani hukuman buntat makanya otak dipakai bua</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'pemimpin', 'yg', 'benarbenar', 'taat', 'pada', 'ajaran', 'agamanya', 'sangat', 'tidak', 'mungkin', 'dia', 'berpikir', 'untuk', 'ijinkan', 'investasi', 'miras', 'di', 'negar']</t>
+          <t>['kan', 'sudah', 'menjalani', 'hukuman', 'buntat', 'makanya', 'otak', 'dipakai', 'bua']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['kan', 'sudah', 'menjalani', 'hukuman', 'buntat', 'makanya', 'otak', 'dipakai', 'bua']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['pemimpin', 'benarbenar', 'taat', 'ajaran', 'agamanya', 'berpikir', 'ijinkan', 'investasi', 'miras', 'negar']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['pimpin', 'benarbenar', 'taat', 'ajar', 'agama', 'pikir', 'ijinkan', 'investasi', 'miras', 'negar']</t>
+          <t>['menjalani', 'hukuman', 'buntat', 'otak', 'dipakai', 'bua']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['jalan', 'hukum', 'buntat', 'otak', 'pakai', 'bua']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23646</v>
+        <v>24675</v>
       </c>
       <c r="C49" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>wahai para pembuat dalil yang menghalalkan yang haram coba dengarkan syair ini</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['wahai', 'para', 'pembuat', 'dalil', 'yang', 'menghalalkan', 'yang', 'haram', 'coba', 'dengarkan', 'syair', 'ini']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['pembuat', 'dalil', 'menghalalkan', 'haram', 'coba', 'dengarkan', 'syair']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['buat', 'dalil', 'halal', 'haram', 'coba', 'dengar', 'syair']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23647</v>
+        <v>24676</v>
       </c>
       <c r="C50" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>inilah kalau kekuatan di pegang oleh oligarki</t>
+          <t>bukan di internal pd dulu saya respek dengan bapak krna argumen dan pendapat yg bapak sampaikan be</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['inilah', 'kalau', 'kekuatan', 'di', 'pegang', 'oleh', 'oligarki']</t>
+          <t>['bukan', 'di', 'internal', 'pd', 'dulu', 'saya', 'respek', 'dengan', 'bapak', 'krna', 'argumen', 'dan', 'pendapat', 'yg', 'bapak', 'sampaikan', 'be']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['bukan', 'di', 'internal', 'pada', 'dulu', 'saya', 'respek', 'dengan', 'bapak', 'karena', 'argumen', 'dan', 'pendapat', 'yang', 'bapak', 'sampaikan', 'be']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['kekuatan', 'pegang', 'oligarki']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['kuat', 'pegang', 'oligarki']</t>
+          <t>['internal', 'respek', 'argumen', 'pendapat', 'be']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['internal', 'respek', 'argumen', 'dapat', 'be']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23648</v>
+        <v>24677</v>
       </c>
       <c r="C51" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>saya tidak mengomentari</t>
+          <t>jangan kira rakyat bodoh pak seolaholah bapak aja yang paling pintar di negeri ini ada perbedaan be</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['saya', 'tidak', 'mengomentari']</t>
+          <t>['jangan', 'kira', 'rakyat', 'bodoh', 'pak', 'seolaholah', 'bapak', 'aja', 'yang', 'paling', 'pintar', 'di', 'negeri', 'ini', 'ada', 'perbedaan', 'be']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['jangan', 'kira', 'rakyat', 'bodoh', 'pak', 'seolaholah', 'bapak', 'saja', 'yang', 'paling', 'pintar', 'di', 'negeri', 'ini', 'ada', 'perbedaan', 'be']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['mengomentari']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['komentar']</t>
+          <t>['rakyat', 'bodoh', 'seolaholah', 'pintar', 'negeri', 'perbedaan', 'be']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['rakyat', 'bodoh', 'seolaholah', 'pintar', 'negeri', 'beda', 'be']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23649</v>
+        <v>24678</v>
       </c>
       <c r="C52" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>sedari awal saya tidak pernah percaya dengan pinokio</t>
+          <t>ada bukti jgn nyebar fitnah lo bot</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['sedari', 'awal', 'saya', 'tidak', 'pernah', 'percaya', 'dengan', 'pinokio']</t>
+          <t>['ada', 'bukti', 'jgn', 'nyebar', 'fitnah', 'lo', 'bot']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ada', 'bukti', 'jangan', 'menyebar', 'fitnah', 'kamu', 'bot']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['sedari', 'percaya', 'pinokio']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['dar', 'percaya', 'pinokio']</t>
+          <t>['bukti', 'menyebar', 'fitnah', 'bot']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['bukti', 'sebar', 'fitnah', 'bot']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23650</v>
+        <v>24679</v>
       </c>
       <c r="C53" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>prestasi yang menggiurkan ya bung</t>
+          <t>asli robot loe ngomong asal ngorocos aja pakai data dan otak kalau ngomong</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['prestasi', 'yang', 'menggiurkan', 'ya', 'bung']</t>
+          <t>['asli', 'robot', 'loe', 'ngomong', 'asal', 'ngorocos', 'aja', 'pakai', 'data', 'dan', 'otak', 'kalau', 'ngomong']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['asli', 'robot', 'kamu', 'berbicara', 'asal', 'ngorocos', 'saja', 'pakai', 'data', 'dan', 'otak', 'kalau', 'berbicara']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['prestasi', 'menggiurkan']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['prestasi', 'giur']</t>
+          <t>['asli', 'robot', 'berbicara', 'ngorocos', 'pakai', 'data', 'otak', 'berbicara']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['asli', 'robot', 'bicara', 'ngorocos', 'pakai', 'data', 'otak', 'bicara']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23651</v>
+        <v>24680</v>
       </c>
       <c r="C54" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>wkwkkw</t>
+          <t>dasar robot</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['wkwkkw']</t>
+          <t>['dasar', 'robot']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['dasar', 'robot']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['wkwkkw']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['wkwkkw']</t>
+          <t>['dasar', 'robot']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['dasar', 'robot']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23652</v>
+        <v>24681</v>
       </c>
       <c r="C55" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>kabarkan kesemua bahwa saat ini memang keadaan sedang tidak kawan</t>
+          <t>saya setuju klb aja pdip</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['kabarkan', 'kesemua', 'bahwa', 'saat', 'ini', 'memang', 'keadaan', 'sedang', 'tidak', 'kawan']</t>
+          <t>['saya', 'setuju', 'klb', 'aja', 'pdip']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['saya', 'setuju', 'klb', 'saja', 'partai, demokrasi, indonesia, perjuangan']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['kabarkan', 'kesemua', 'kawan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['kabar', 'semua', 'kawan']</t>
+          <t>['setuju', 'klb', 'partai, demokrasi, indonesia, perjuangan']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['tuju', 'klb', 'partai demokrasi indonesia juang']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23653</v>
+        <v>24682</v>
       </c>
       <c r="C56" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>bro sis biji mata ngaku paling pancasilais tapi sarang korupsi kan bangsat namanya</t>
+          <t>biasanya kalau org yang sudah memberi tpi merasa bersalah dan menyesal atas perbuatan tersebut berati ada kesalahan</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['bro', 'sis', 'biji', 'mata', 'ngaku', 'paling', 'pancasilais', 'tapi', 'sarang', 'korupsi', 'kan', 'bangsat', 'namanya']</t>
+          <t>['biasanya', 'kalau', 'org', 'yang', 'sudah', 'memberi', 'tpi', 'merasa', 'bersalah', 'dan', 'menyesal', 'atas', 'perbuatan', 'tersebut', 'berati', 'ada', 'kesalahan']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['biasanya', 'kalau', 'orang', 'yang', 'sudah', 'memberi', 'tetapi', 'merasa', 'bersalah', 'dan', 'menyesal', 'atas', 'perbuatan', 'tersebut', 'berarti', 'ada', 'kesalahan']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['bro', 'sis', 'biji', 'mata', 'ngaku', 'pancasilais', 'sarang', 'korupsi', 'bangsat', 'namanya']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['bro', 'sis', 'biji', 'mata', 'ngaku', 'pancasilais', 'sarang', 'korupsi', 'bangsat', 'nama']</t>
+          <t>['orang', 'bersalah', 'menyesal', 'perbuatan', 'kesalahan']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['orang', 'salah', 'sesal', 'buat', 'salah']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23654</v>
+        <v>24683</v>
       </c>
       <c r="C57" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt karena undang undang itu hanya berlaku untuk manusia hukum tidak berlaku untuk diluar manusia contohnya binata</t>
+          <t>asli gak nyambung loe zaman ibu mega tidak merampok pdip tapi mendirikan</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'karena', 'undang', 'undang', 'itu', 'hanya', 'berlaku', 'untuk', 'manusia', 'hukum', 'tidak', 'berlaku', 'untuk', 'diluar', 'manusia', 'contohnya', 'binata']</t>
+          <t>['asli', 'gak', 'nyambung', 'loe', 'zaman', 'ibu', 'mega', 'tidak', 'merampok', 'pdip', 'tapi', 'mendirikan']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>['asli', 'tidak', 'menyambung', 'kamu', 'zaman', 'ibu', 'mega', 'tidak', 'merampok', 'partai, demokrasi, indonesia, perjuangan', 'tapi', 'mendirikan']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['undang', 'undang', 'berlaku', 'manusia', 'hukum', 'berlaku', 'diluar', 'manusia', 'contohnya', 'binata']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['undang', 'undang', 'laku', 'manusia', 'hukum', 'laku', 'luar', 'manusia', 'contoh', 'bata']</t>
+          <t>['asli', 'menyambung', 'zaman', 'mega', 'merampok', 'partai, demokrasi, indonesia, perjuangan', 'mendirikan']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['asli', 'sambung', 'zaman', 'mega', 'rampok', 'partai demokrasi indonesia juang', 'diri']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23655</v>
+        <v>24684</v>
       </c>
       <c r="C58" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>psi cari panggung</t>
+          <t>itu namanya bijiiii kontoll</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['psi', 'cari', 'panggung']</t>
+          <t>['itu', 'namanya', 'bijiiii', 'kontoll']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['itu', 'namanya', 'bijiiii', 'kontoll']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['psi', 'cari', 'panggung']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['psi', 'cari', 'panggung']</t>
+          <t>['namanya', 'bijiiii', 'kontoll']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['nama', 'bijiiii', 'kontoll']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23656</v>
+        <v>24685</v>
       </c>
       <c r="C59" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>jago</t>
+          <t>eh si gerombolan tutup botol muncul</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['jago']</t>
+          <t>['eh', 'si', 'gerombolan', 'tutup', 'botol', 'muncul']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['eh', 'sih', 'gerombolan', 'tutup', 'botol', 'muncul']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['jago']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['jago']</t>
+          <t>['eh', 'gerombolan', 'tutup', 'botol', 'muncul']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['eh', 'gerombol', 'tutup', 'botol', 'muncul']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23657</v>
+        <v>24686</v>
       </c>
       <c r="C60" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>dan digaji pakai apbn</t>
+          <t>si moelbontot gak tau aturan</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['dan', 'digaji', 'pakai', 'apbn']</t>
+          <t>['si', 'moelbontot', 'gak', 'tau', 'aturan']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sih', 'moelbontot', 'tidak', 'tau', 'aturan']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['digaji', 'pakai', 'apbn']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['gaji', 'pakai', 'apbn']</t>
+          <t>['moelbontot', 'aturan']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['moelbontot', 'atur']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23658</v>
+        <v>24687</v>
       </c>
       <c r="C61" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>mutunya dmna tidak lebih dari seorang buzzerrp</t>
+          <t>rt saksikan konferensi pers ketua umum partai demokrat</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['mutunya', 'dmna', 'tidak', 'lebih', 'dari', 'seorang', 'buzzerrp']</t>
+          <t>['rt', 'saksikan', 'konferensi', 'pers', 'ketua', 'umum', 'partai', 'demokrat']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'saksikan', 'konferensi', 'pers', 'ketua', 'umum', 'partai', 'demokrat']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['mutunya', 'dmna', 'buzzerrp']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['mutu', 'dmna', 'buzzerrp']</t>
+          <t>['saksikan', 'konferensi', 'pers', 'ketua', 'partai', 'demokrat']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['saksi', 'konferensi', 'pers', 'ketua', 'partai', 'demokrat']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23659</v>
+        <v>24688</v>
       </c>
       <c r="C62" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ok hanya rakyat yang punya akal yang paham kaum itu ahhhhhhh suuhhhhhhhhhhhh</t>
+          <t>gak tau malu</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['ok', 'hanya', 'rakyat', 'yang', 'punya', 'akal', 'yang', 'paham', 'kaum', 'itu', 'ahhhhhhh', 'suuhhhhhhhhhhhh']</t>
+          <t>['gak', 'tau', 'malu']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['tidak', 'tau', 'malu']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['ok', 'rakyat', 'akal', 'paham', 'kaum', 'ahhhhhhh', 'suuhhhhhhhhhhhh']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['ok', 'rakyat', 'akal', 'paham', 'kaum', 'ahhhhhhh', 'suuhhhhhhhhhhhh']</t>
+          <t>['malu']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['malu']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2977,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23660</v>
+        <v>24689</v>
       </c>
       <c r="C63" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>covid hanya menyerang manusia nyata tidak pada pinokio bung</t>
+          <t>woeooeoee dasar tidak punya malu loe moelbonto</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['covid', 'hanya', 'menyerang', 'manusia', 'nyata', 'tidak', 'pada', 'pinokio', 'bung']</t>
+          <t>['woeooeoee', 'dasar', 'tidak', 'punya', 'malu', 'loe', 'moelbonto']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['woeooeoee', 'dasar', 'tidak', 'punya', 'malu', 'kamu', 'moelbonto']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['covid', 'menyerang', 'manusia', 'nyata', 'pinokio']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['covid', 'serang', 'manusia', 'nyata', 'pinokio']</t>
+          <t>['woeooeoee', 'dasar', 'malu', 'moelbonto']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['woeooeoee', 'dasar', 'malu', 'moelbonto']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3018,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23661</v>
+        <v>24690</v>
       </c>
       <c r="C64" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>kan front persaudaraan bukan pembela</t>
+          <t>wong mereka yg mendukung ko</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['kan', 'front', 'persaudaraan', 'bukan', 'pembela']</t>
+          <t>['wong', 'mereka', 'yg', 'mendukung', 'ko']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['orang', 'mereka', 'yang', 'mendukung', 'kok']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['front', 'persaudaraan', 'pembela']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['front', 'saudara', 'bela']</t>
+          <t>['orang', 'mendukung']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['orang', 'dukung']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23662</v>
+        <v>24691</v>
       </c>
       <c r="C65" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jgn di marahi pajak nanti nangis dia merengek didzolimi pula</t>
+          <t>sdh jatuh korban</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['jgn', 'di', 'marahi', 'pajak', 'nanti', 'nangis', 'dia', 'merengek', 'didzolimi', 'pula']</t>
+          <t>['sdh', 'jatuh', 'korban']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['sudah', 'jatuh', 'korban']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['marahi', 'pajak', 'nangis', 'merengek', 'didzolimi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['marah', 'pajak', 'nang', 'rengek', 'didzolimi']</t>
+          <t>['jatuh', 'korban']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['jatuh', 'korban']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23663</v>
+        <v>24692</v>
       </c>
       <c r="C66" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>tukang nyalahkan</t>
+          <t>korban dari kubu mana ni</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['tukang', 'nyalahkan']</t>
+          <t>['korban', 'dari', 'kubu', 'mana', 'ni']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['korban', 'dari', 'kubu', 'mana', 'nih']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['tukang', 'nyalahkan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['tukang', 'nyalahkan']</t>
+          <t>['korban', 'kubu']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['korban', 'kubu']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23664</v>
+        <v>24693</v>
       </c>
       <c r="C67" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>gak fair loe bro waktu jateng loe bilang siklus tahun sekali kalteng loe bilang cuaca ekstrem lah dki ko nyer</t>
+          <t>manttaap</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['gak', 'fair', 'loe', 'bro', 'waktu', 'jateng', 'loe', 'bilang', 'siklus', 'tahun', 'sekali', 'kalteng', 'loe', 'bilang', 'cuaca', 'ekstrem', 'lah', 'dki', 'ko', 'nyer']</t>
+          <t>['manttaap']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['manttaap']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['fair', 'loe', 'bro', 'jateng', 'loe', 'siklus', 'kalteng', 'loe', 'cuaca', 'ekstrem', 'dki', 'ko', 'nyer']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['fair', 'loe', 'bro', 'jateng', 'loe', 'siklus', 'kalteng', 'loe', 'cuaca', 'ekstrem', 'dki', 'ko', 'nyer']</t>
+          <t>['manttaap']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['manttaap']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23665</v>
+        <v>24694</v>
       </c>
       <c r="C68" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>otak udang</t>
+          <t>rt fecho</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['otak', 'udang']</t>
+          <t>['rt', 'fecho']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['rt', 'fecho']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['otak', 'udang']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['otak', 'udang']</t>
+          <t>['fecho']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['fecho']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23666</v>
+        <v>24695</v>
       </c>
       <c r="C69" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>bagaimana ini bingung saya</t>
+          <t>luar biasa kader muda partai berlambang merci selalu santu dan tak patah semangat</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['bagaimana', 'ini', 'bingung', 'saya']</t>
+          <t>['luar', 'biasa', 'kader', 'muda', 'partai', 'berlambang', 'merci', 'selalu', 'santu', 'dan', 'tak', 'patah', 'semangat']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['luar', 'biasa', 'kader', 'muda', 'partai', 'berlambang', 'merci', 'selalu', 'santu', 'dan', 'tak', 'patah', 'semangat']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['bingung']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['bingung']</t>
+          <t>['kader', 'muda', 'partai', 'berlambang', 'merci', 'santu', 'patah', 'semangat']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['kader', 'muda', 'partai', 'lambang', 'merci', 'santu', 'patah', 'semangat']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23667</v>
+        <v>24696</v>
       </c>
       <c r="C70" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>isinya palsu semua wkkwkw</t>
+          <t>jj dia ahahha ketahuan</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['isinya', 'palsu', 'semua', 'wkkwkw']</t>
+          <t>['jj', 'dia', 'ahahha', 'ketahuan']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['jj', 'dia', 'ahahha', 'ketahuan']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['isinya', 'palsu', 'wkkwkw']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['isi', 'palsu', 'wkkwkw']</t>
+          <t>['jj', 'ahahha', 'ketahuan']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['jj', 'ahahha', 'tahu']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23668</v>
+        <v>24697</v>
       </c>
       <c r="C71" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>jeruk makan</t>
+          <t>mantap respon yang bijak</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['jeruk', 'makan']</t>
+          <t>['mantap', 'respon', 'yang', 'bijak']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['mantap', 'respon', 'yang', 'bijak']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['jeruk', 'makan']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['jeruk', 'makan']</t>
+          <t>['mantap', 'respon', 'bijak']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['mantap', 'respon', 'bijak']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23669</v>
+        <v>24698</v>
       </c>
       <c r="C72" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>siasia masyarakat bayar pajak kalau cuma utk bayar buzzer rp</t>
+          <t>hmmmm asli parah kronis kelakuan di mulbontot</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['siasia', 'masyarakat', 'bayar', 'pajak', 'kalau', 'cuma', 'utk', 'bayar', 'buzzer', 'rp']</t>
+          <t>['hmmmm', 'asli', 'parah', 'kronis', 'kelakuan', 'di', 'mulbontot']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['hmmmm', 'asli', 'parah', 'kronis', 'kelakuan', 'di', 'mulbontot']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['siasia', 'masyarakat', 'bayar', 'pajak', 'bayar', 'buzzer', 'rp']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['siasia', 'masyarakat', 'bayar', 'pajak', 'bayar', 'buzzer', 'rp']</t>
+          <t>['hmmmm', 'asli', 'parah', 'kronis', 'kelakuan', 'mulbontot']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['hmmmm', 'asli', 'parah', 'kronis', 'laku', 'mulbontot']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23670</v>
+        <v>24699</v>
       </c>
       <c r="C73" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>kann begitu klaw mereka oposisi</t>
+          <t xml:space="preserve">kelakuan gerombolan kaka pembina telah dan sangat menciderai demokrasi yang telah dibangun pasca reformasi kaka </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['kann', 'begitu', 'klaw', 'mereka', 'oposisi']</t>
+          <t>['kelakuan', 'gerombolan', 'kaka', 'pembina', 'telah', 'dan', 'sangat', 'menciderai', 'demokrasi', 'yang', 'telah', 'dibangun', 'pasca', 'reformasi', 'kaka']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kelakuan', 'gerombolan', 'kakak', 'pembina', 'telah', 'dan', 'sangat', 'menciderai', 'demokrasi', 'yang', 'telah', 'dibangun', 'pasca', 'reformasi', 'kakak']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['kann', 'klaw', 'oposisi']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['kann', 'klaw', 'oposisi']</t>
+          <t>['kelakuan', 'gerombolan', 'kakak', 'pembina', 'menciderai', 'demokrasi', 'dibangun', 'pasca', 'reformasi', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['laku', 'gerombol', 'kakak', 'bina', 'menciderai', 'demokrasi', 'bangun', 'pasca', 'reformasi', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23671</v>
+        <v>24700</v>
       </c>
       <c r="C74" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>parah menang otak bapak panjul ini</t>
+          <t>wowww</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['parah', 'menang', 'otak', 'bapak', 'panjul', 'ini']</t>
+          <t>['wowww']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['wow']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['parah', 'menang', 'otak', 'panjul']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['parah', 'menang', 'otak', 'panjul']</t>
+          <t>['wow']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['wow']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23672</v>
+        <v>24701</v>
       </c>
       <c r="C75" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>suka blokir memang merka bang</t>
+          <t>id fb bang</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['suka', 'blokir', 'memang', 'merka', 'bang']</t>
+          <t>['id', 'fb', 'bang']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['id', 'facebook', 'bang']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['suka', 'blokir', 'merka', 'bang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['suka', 'blokir', 'merka', 'bang']</t>
+          <t>['id', 'facebook', 'bang']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['id', 'facebook', 'bang']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3510,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23673</v>
+        <v>24702</v>
       </c>
       <c r="C76" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>itulah sifat mereka suka mengadaada</t>
+          <t>pastinya murid dari kaka pembina yg berbuat</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['itulah', 'sifat', 'mereka', 'suka', 'mengadaada']</t>
+          <t>['pastinya', 'murid', 'dari', 'kaka', 'pembina', 'yg', 'berbuat']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pastinya', 'murid', 'dari', 'kakak', 'pembina', 'yang', 'berbuat']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['sifat', 'suka', 'mengadaada']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['sifat', 'suka', 'mengadaada']</t>
+          <t>['pastinya', 'murid', 'kakak', 'pembina', 'berbuat']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['pasti', 'murid', 'kakak', 'bina', 'buat']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23674</v>
+        <v>24703</v>
       </c>
       <c r="C77" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>revisi skrang banyak pasal karet</t>
+          <t>gamki sama</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['revisi', 'skrang', 'banyak', 'pasal', 'karet']</t>
+          <t>['gamki', 'sama']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['gamki', 'sama']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['revisi', 'skrang', 'pasal', 'karet']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['revisi', 'skrang', 'pasal', 'karet']</t>
+          <t>['gamki']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['gamki']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23675</v>
+        <v>24704</v>
       </c>
       <c r="C78" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ginikah</t>
+          <t>di hack oleh gerombolan tutup panci</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['ginikah']</t>
+          <t>['di', 'hack', 'oleh', 'gerombolan', 'tutup', 'panci']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['di', 'hack', 'oleh', 'gerombolan', 'tutup', 'panci']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['ginikah']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['gin']</t>
+          <t>['hack', 'gerombolan', 'tutup', 'panci']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['hack', 'gerombol', 'tutup', 'panci']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23676</v>
+        <v>24705</v>
       </c>
       <c r="C79" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>kalau mau maju pilgub dki jangan lupa nyemplung di got karena itu tradisi kalian</t>
+          <t>parah mereka dpp gamki aja gak ngakuin terus itu gerombolan mana mantap gamki yg bertindak cepat</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['kalau', 'mau', 'maju', 'pilgub', 'dki', 'jangan', 'lupa', 'nyemplung', 'di', 'got', 'karena', 'itu', 'tradisi', 'kalian']</t>
+          <t>['parah', 'mereka', 'dpp', 'gamki', 'aja', 'gak', 'ngakuin', 'terus', 'itu', 'gerombolan', 'mana', 'mantap', 'gamki', 'yg', 'bertindak', 'cepat']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['parah', 'mereka', 'dasar, pengenaan, pajak', 'gamki', 'saja', 'tidak', 'mengakui', 'terus', 'itu', 'gerombolan', 'mana', 'mantap', 'gamki', 'yang', 'bertindak', 'cepat']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['maju', 'pilgub', 'dki', 'lupa', 'nyemplung', 'got', 'tradisi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['maju', 'pilgub', 'dki', 'lupa', 'nyemplung', 'got', 'tradisi']</t>
+          <t>['parah', 'dasar, pengenaan, pajak', 'gamki', 'mengakui', 'gerombolan', 'mantap', 'gamki', 'bertindak', 'cepat']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['parah', 'dasar kena pajak', 'gamki', 'aku', 'gerombol', 'mantap', 'gamki', 'tindak', 'cepat']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23677</v>
+        <v>24706</v>
       </c>
       <c r="C80" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>anggap saja lelucon kalau sedang berhadapan dengan buzzer rp</t>
+          <t>jauhnya</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['anggap', 'saja', 'lelucon', 'kalau', 'sedang', 'berhadapan', 'dengan', 'buzzer', 'rp']</t>
+          <t>['jauhnya']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['jauhnya']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['anggap', 'lelucon', 'berhadapan', 'buzzer', 'rp']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['anggap', 'lelucon', 'hadap', 'buzzer', 'rp']</t>
+          <t>['jauhnya']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['jauh']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23678</v>
+        <v>24707</v>
       </c>
       <c r="C81" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rt ahok kalah di dki anies disebut didukung kelompok radikal pdip kalah di sumbar puan sebut sumbar provinsi tak pancasil</t>
+          <t>semua didikan kaka pembina turun tangan rupanya wkkwkwkwkw</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'ahok', 'kalah', 'di', 'dki', 'anies', 'disebut', 'didukung', 'kelompok', 'radikal', 'pdip', 'kalah', 'di', 'sumbar', 'puan', 'sebut', 'sumbar', 'provinsi', 'tak', 'pancasil']</t>
+          <t>['semua', 'didikan', 'kaka', 'pembina', 'turun', 'tangan', 'rupanya', 'wkkwkwkwkw']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['semua', 'didikan', 'kakak', 'pembina', 'turun', 'tangan', 'rupanya', 'wkwk']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['ahok', 'kalah', 'dki', 'anies', 'didukung', 'kelompok', 'radikal', 'pdip', 'kalah', 'sumbar', 'puan', 'sumbar', 'provinsi', 'pancasil']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['ahok', 'kalah', 'dki', 'anies', 'dukung', 'kelompok', 'radikal', 'pdip', 'kalah', 'sumbar', 'puan', 'sumbar', 'provinsi', 'pancasil']</t>
+          <t>['didikan', 'kakak', 'pembina', 'turun', 'tangan', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['dik', 'kakak', 'bina', 'turun', 'tangan', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23679</v>
+        <v>24708</v>
       </c>
       <c r="C82" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>awalnya ngelak eh ternyata busuk loe mol</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['awalnya', 'ngelak', 'eh', 'ternyata', 'busuk', 'loe', 'mol']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['awalnya', 'ngelak', 'eh', 'ternyata', 'busuk', 'kamu', 'mol']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ngelak', 'eh', 'busuk', 'mol']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['ngelak', 'eh', 'busuk', 'mol']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>23680</v>
+        <v>24709</v>
       </c>
       <c r="C83" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>akkakkak ketawa aja</t>
+          <t>aamiin</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['akkakkak', 'ketawa', 'aja']</t>
+          <t>['aamiin']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['amin']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['akkakkak', 'ketawa']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['akkakkak', 'ketawa']</t>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['amin']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23681</v>
+        <v>24710</v>
       </c>
       <c r="C84" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>cak nun</t>
+          <t>rt nhs</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['cak', 'nun']</t>
+          <t>['rt', 'nhs']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['rt', 'nhs']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['cak', 'nun']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['cak', 'nun']</t>
+          <t>['nhs']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['nhs']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23682</v>
+        <v>24711</v>
       </c>
       <c r="C85" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>gile lu ndro</t>
+          <t>inikah</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['gile', 'lu', 'ndro']</t>
+          <t>['inikah']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['inikah']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['gile', 'lu', 'ndro']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['gile', 'lu', 'ndro']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>23683</v>
+        <v>24712</v>
       </c>
       <c r="C86" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>hm dan terjadi lagi</t>
+          <t>rt zina didukung dengan alasan consent riba didukung dengan alasan terpaksa miras didukung dengan alasan kearifan lokal gilira</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['hm', 'dan', 'terjadi', 'lagi']</t>
+          <t>['rt', 'zina', 'didukung', 'dengan', 'alasan', 'consent', 'riba', 'didukung', 'dengan', 'alasan', 'terpaksa', 'miras', 'didukung', 'dengan', 'alasan', 'kearifan', 'lokal', 'gilira']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'zina', 'didukung', 'dengan', 'alasan', 'consent', 'riba', 'didukung', 'dengan', 'alasan', 'terpaksa', 'minuman, keras', 'didukung', 'dengan', 'alasan', 'kearifan', 'lokal', 'gilira']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['hm']</t>
+          <t>&lt;FreqDist with 12 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['hm']</t>
+          <t>['zina', 'didukung', 'alasan', 'consent', 'riba', 'didukung', 'alasan', 'terpaksa', 'minuman, keras', 'didukung', 'alasan', 'kearifan', 'lokal', 'gilira']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['zina', 'dukung', 'alas', 'consent', 'riba', 'dukung', 'alas', 'paksa', 'minum keras', 'dukung', 'alas', 'arif', 'lokal', 'gilira']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23684</v>
+        <v>24713</v>
       </c>
       <c r="C87" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>gelar baru</t>
+          <t>rt hai orangorang yang beriman sesungguhnya meminum khamar berjudi berkorban untuk berhala mengundi nasib dengan pana</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['gelar', 'baru']</t>
+          <t>['rt', 'hai', 'orangorang', 'yang', 'beriman', 'sesungguhnya', 'meminum', 'khamar', 'berjudi', 'berkorban', 'untuk', 'berhala', 'mengundi', 'nasib', 'dengan', 'pana']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'hai', 'orangorang', 'yang', 'beriman', 'sesungguhnya', 'meminum', 'khamar', 'berjudi', 'berkorban', 'untuk', 'berhala', 'mengundi', 'nasib', 'dengan', 'pana']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['gelar']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['gelar']</t>
+          <t>['hai', 'orangorang', 'beriman', 'sesungguhnya', 'meminum', 'khamar', 'berjudi', 'berkorban', 'berhala', 'mengundi', 'nasib', 'pana']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['hai', 'orangorang', 'iman', 'sungguh', 'minum', 'khamar', 'judi', 'korban', 'berhala', 'undi', 'nasib', 'pana']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23685</v>
+        <v>24714</v>
       </c>
       <c r="C88" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>turut berduka semoga cepat sembuh dan mendaptkan hidayah dari allah swt</t>
+          <t>rt pemimpin yg benarbenar taat pada ajaran agamanya sangat tidak mungkin dia berpikir untuk ijinkan investasi miras di negar</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'semoga', 'cepat', 'sembuh', 'dan', 'mendaptkan', 'hidayah', 'dari', 'allah', 'swt']</t>
+          <t>['rt', 'pemimpin', 'yg', 'benarbenar', 'taat', 'pada', 'ajaran', 'agamanya', 'sangat', 'tidak', 'mungkin', 'dia', 'berpikir', 'untuk', 'ijinkan', 'investasi', 'miras', 'di', 'negar']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'pemimpin', 'yang', 'benarbenar', 'taat', 'pada', 'ajaran', 'agamanya', 'sangat', 'tidak', 'mungkin', 'dia', 'berpikir', 'untuk', 'izinkan', 'investasi', 'minuman, keras', 'di', 'negar']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['berduka', 'semoga', 'cepat', 'sembuh', 'mendaptkan', 'hidayah', 'allah', 'swt']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['duka', 'moga', 'cepat', 'sembuh', 'mendaptkan', 'hidayah', 'allah', 'swt']</t>
+          <t>['pemimpin', 'benarbenar', 'taat', 'ajaran', 'agamanya', 'berpikir', 'izinkan', 'investasi', 'minuman, keras', 'negar']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['pimpin', 'benarbenar', 'taat', 'ajar', 'agama', 'pikir', 'izin', 'investasi', 'minum keras', 'negar']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23686</v>
+        <v>24715</v>
       </c>
       <c r="C89" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jumat berkah</t>
+          <t>wahai para pembuat dalil yang menghalalkan yang haram coba dengarkan syair ini</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['jumat', 'berkah']</t>
+          <t>['wahai', 'para', 'pembuat', 'dalil', 'yang', 'menghalalkan', 'yang', 'haram', 'coba', 'dengarkan', 'syair', 'ini']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['wahai', 'para', 'pembuat', 'dalil', 'yang', 'menghalalkan', 'yang', 'haram', 'coba', 'dengarkan', 'syair', 'ini']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['jumat', 'berkah']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['jumat', 'berkah']</t>
+          <t>['pembuat', 'dalil', 'menghalalkan', 'haram', 'coba', 'dengarkan', 'syair']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['buat', 'dalil', 'halal', 'haram', 'coba', 'dengar', 'syair']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23687</v>
+        <v>24716</v>
       </c>
       <c r="C90" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>herdiansyah</t>
+          <t>inilah kalau kekuatan di pegang oleh oligarki</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['herdiansyah']</t>
+          <t>['inilah', 'kalau', 'kekuatan', 'di', 'pegang', 'oleh', 'oligarki']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['inilah', 'kalau', 'kekuatan', 'di', 'pegang', 'oleh', 'oligarki']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['herdiansyah']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['herdiansyah']</t>
+          <t>['kekuatan', 'pegang', 'oligarki']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['kuat', 'pegang', 'oligarki']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23688</v>
+        <v>24717</v>
       </c>
       <c r="C91" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>hebat mereka</t>
+          <t>saya tidak mengomentari</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['hebat', 'mereka']</t>
+          <t>['saya', 'tidak', 'mengomentari']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['saya', 'tidak', 'mengomentari']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['hebat']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['hebat']</t>
+          <t>['mengomentari']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['komentar']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23689</v>
+        <v>24718</v>
       </c>
       <c r="C92" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>pemimpin negeri yang memelihara sampah demokrasi barat daya zimbawe</t>
+          <t>sedari awal saya tidak pernah percaya dengan pinokio</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['pemimpin', 'negeri', 'yang', 'memelihara', 'sampah', 'demokrasi', 'barat', 'daya', 'zimbawe']</t>
+          <t>['sedari', 'awal', 'saya', 'tidak', 'pernah', 'percaya', 'dengan', 'pinokio']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['sedari', 'awal', 'saya', 'tidak', 'pernah', 'percaya', 'dengan', 'pinokio']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['pemimpin', 'negeri', 'memelihara', 'sampah', 'demokrasi', 'barat', 'daya', 'zimbawe']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['pimpin', 'negeri', 'pelihara', 'sampah', 'demokrasi', 'barat', 'daya', 'zimbawe']</t>
+          <t>['sedari', 'percaya', 'pinokio']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['dar', 'percaya', 'pinokio']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23690</v>
+        <v>24719</v>
       </c>
       <c r="C93" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>no caption</t>
+          <t>prestasi yang menggiurkan ya bung</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['no', 'caption']</t>
+          <t>['prestasi', 'yang', 'menggiurkan', 'ya', 'bung']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['prestasi', 'yang', 'menggiurkan', 'ya', 'bung']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['no', 'caption']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['no', 'caption']</t>
+          <t>['prestasi', 'menggiurkan']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['prestasi', 'giur']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23691</v>
+        <v>24720</v>
       </c>
       <c r="C94" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>mudahan cepat bekerja nya</t>
+          <t>wkwkkw</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['mudahan', 'cepat', 'bekerja', 'nya']</t>
+          <t>['wkwkkw']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['wkwk']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['mudahan', 'cepat']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['mudah', 'cepat']</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23692</v>
+        <v>24721</v>
       </c>
       <c r="C95" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>mbere afi mbere moti oro runduna kone nifi nanginangi dana tambora lelileli doro tambora maina bala tiloa ndi tola</t>
+          <t>kabarkan kesemua bahwa saat ini memang keadaan sedang tidak kawan</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['mbere', 'afi', 'mbere', 'moti', 'oro', 'runduna', 'kone', 'nifi', 'nanginangi', 'dana', 'tambora', 'lelileli', 'doro', 'tambora', 'maina', 'bala', 'tiloa', 'ndi', 'tola']</t>
+          <t>['kabarkan', 'kesemua', 'bahwa', 'saat', 'ini', 'memang', 'keadaan', 'sedang', 'tidak', 'kawan']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['kabarkan', 'kesemua', 'bahwa', 'saat', 'ini', 'memang', 'keadaan', 'sedang', 'tidak', 'kawan']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['mbere', 'afi', 'mbere', 'moti', 'oro', 'runduna', 'kone', 'nifi', 'nanginangi', 'dana', 'tambora', 'lelileli', 'doro', 'tambora', 'maina', 'bala', 'tiloa', 'ndi', 'tola']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['mbere', 'afi', 'mbere', 'moti', 'oro', 'runduna', 'kone', 'nifi', 'nanginangi', 'dana', 'tambora', 'lelileli', 'doro', 'tambora', 'maina', 'bala', 'tiloa', 'ndi', 'tola']</t>
+          <t>['kabarkan', 'kesemua', 'kawan']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['kabar', 'semua', 'kawan']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23693</v>
+        <v>24722</v>
       </c>
       <c r="C96" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>mereka</t>
+          <t>bro sis biji mata ngaku paling pancasilais tapi sarang korupsi kan bangsat namanya</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['mereka']</t>
+          <t>['bro', 'sis', 'biji', 'mata', 'ngaku', 'paling', 'pancasilais', 'tapi', 'sarang', 'korupsi', 'kan', 'bangsat', 'namanya']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['bro', 'sis', 'biji', 'mata', 'mengakui', 'paling', 'pancasilais', 'tapi', 'sarang', 'korupsi', 'kan', 'bangsat', 'namanya']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bro', 'sis', 'biji', 'mata', 'mengakui', 'pancasilais', 'sarang', 'korupsi', 'bangsat', 'namanya']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['bro', 'sis', 'biji', 'mata', 'aku', 'pancasilais', 'sarang', 'korupsi', 'bangsat', 'nama']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23694</v>
+        <v>24723</v>
       </c>
       <c r="C97" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>sabar bung sepertinya sampahsampah seperti mereka sdang dipungut karna hanya di rezim ini pencit</t>
+          <t>rt karena undang undang itu hanya berlaku untuk manusia hukum tidak berlaku untuk diluar manusia contohnya binata</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['sabar', 'bung', 'sepertinya', 'sampahsampah', 'seperti', 'mereka', 'sdang', 'dipungut', 'karna', 'hanya', 'di', 'rezim', 'ini', 'pencit']</t>
+          <t>['rt', 'karena', 'undang', 'undang', 'itu', 'hanya', 'berlaku', 'untuk', 'manusia', 'hukum', 'tidak', 'berlaku', 'untuk', 'diluar', 'manusia', 'contohnya', 'binata']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'karena', 'undang', 'undang', 'itu', 'hanya', 'berlaku', 'untuk', 'manusia', 'hukum', 'tidak', 'berlaku', 'untuk', 'di, luar', 'manusia', 'contohnya', 'binata']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['sabar', 'sampahsampah', 'sdang', 'dipungut', 'karna', 'rezim', 'pencit']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['sabar', 'sampahsampah', 'sdang', 'pungut', 'karna', 'rezim', 'cit']</t>
+          <t>['undang', 'undang', 'berlaku', 'manusia', 'hukum', 'berlaku', 'di, luar', 'manusia', 'contohnya', 'binata']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['undang', 'undang', 'laku', 'manusia', 'hukum', 'laku', 'di luar', 'manusia', 'contoh', 'bata']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23695</v>
+        <v>24724</v>
       </c>
       <c r="C98" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt disiram air keras diserang isu taliban kini dilapor ke polisi akibat kritiknya novel baswedan seperti tidak punya </t>
+          <t>psi cari panggung</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'disiram', 'air', 'keras', 'diserang', 'isu', 'taliban', 'kini', 'dilapor', 'ke', 'polisi', 'akibat', 'kritiknya', 'novel', 'baswedan', 'seperti', 'tidak', 'punya']</t>
+          <t>['psi', 'cari', 'panggung']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['psi', 'cari', 'panggung']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['disiram', 'air', 'keras', 'diserang', 'isu', 'taliban', 'dilapor', 'polisi', 'akibat', 'kritiknya', 'novel', 'baswedan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['siram', 'air', 'keras', 'serang', 'isu', 'talib', 'lapor', 'polisi', 'akibat', 'kritik', 'novel', 'baswedan']</t>
+          <t>['psi', 'cari', 'panggung']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['psi', 'cari', 'panggung']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23696</v>
+        <v>24725</v>
       </c>
       <c r="C99" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ucapan duka dari para pecundang negeri</t>
+          <t>jago</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['ucapan', 'duka', 'dari', 'para', 'pecundang', 'negeri']</t>
+          <t>['jago']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['jago']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['ucapan', 'duka', 'pecundang', 'negeri']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['ucap', 'duka', 'cundang', 'negeri']</t>
+          <t>['jago']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['jago']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23697</v>
+        <v>24726</v>
       </c>
       <c r="C100" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>oh gitu jadi ini toh parahhhhh otaknya</t>
+          <t>dan digaji pakai apbn</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['oh', 'gitu', 'jadi', 'ini', 'toh', 'parahhhhh', 'otaknya']</t>
+          <t>['dan', 'digaji', 'pakai', 'apbn']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['dan', 'digaji', 'pakai', 'anggaran, pendapatan, dan, belanja, negara']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['oh', 'gitu', 'parahhhhh', 'otaknya']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['oh', 'gitu', 'parahhhhh', 'otak']</t>
+          <t>['digaji', 'pakai', 'anggaran, pendapatan, dan, belanja, negara']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['gaji', 'pakai', 'anggar dapat dan belanja negara']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4535,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23698</v>
+        <v>24727</v>
       </c>
       <c r="C101" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rt eks anak buah sby bongkar bobrok polisi terkait aktor mafia tanah</t>
+          <t>mutunya dmna tidak lebih dari seorang buzzerrp</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rt', 'eks', 'anak', 'buah', 'sby', 'bongkar', 'bobrok', 'polisi', 'terkait', 'aktor', 'mafia', 'tanah']</t>
+          <t>['mutunya', 'dmna', 'tidak', 'lebih', 'dari', 'seorang', 'buzzerrp']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['mutunya', 'di, mana', 'tidak', 'lebih', 'dari', 'seorang', 'buzzerrp']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['eks', 'anak', 'buah', 'sby', 'bongkar', 'bobrok', 'polisi', 'terkait', 'aktor', 'mafia', 'tanah']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['eks', 'anak', 'buah', 'sby', 'bongkar', 'bobrok', 'polisi', 'kait', 'aktor', 'mafia', 'tanah']</t>
+          <t>['mutunya', 'di, mana', 'buzzerrp']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['mutu', 'di mana', 'buzzerrp']</t>
         </is>
       </c>
     </row>
